--- a/Product.xlsx
+++ b/Product.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="42">
   <si>
     <t>Test ID</t>
   </si>
@@ -51,21 +51,12 @@
     <t>Зайти на Яндекс маркет</t>
   </si>
   <si>
-    <t>Зайти на страницу товара</t>
-  </si>
-  <si>
     <t>Проверить добавление товара в отложенные</t>
   </si>
   <si>
     <t>Зайти в раздел "Мобильные телефоны"</t>
   </si>
   <si>
-    <t>нажать на первый товар из списка</t>
-  </si>
-  <si>
-    <t>Открылась страница товара</t>
-  </si>
-  <si>
     <t>Перейти в "Отложенные"</t>
   </si>
   <si>
@@ -132,9 +123,6 @@
     <t>Появилось оповещение о добавлении товара в отложенные,кнопка "Отложить" поменялась на "Отложено"</t>
   </si>
   <si>
-    <t>Проверить добавление товара в отложенные при нажатии кнопки "Отложить""</t>
-  </si>
-  <si>
     <t>Нажать на Checkbox "С фото"</t>
   </si>
   <si>
@@ -145,6 +133,15 @@
   </si>
   <si>
     <t>Подождать обновление страницы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Зайти в раздел "Мобильные телефоны"  </t>
+  </si>
+  <si>
+    <t>Зайти на страницу первого товара из списка</t>
+  </si>
+  <si>
+    <t>Проверить возможность добавления товара в отложенные при нажатии кнопки "Отложить""</t>
   </si>
 </sst>
 </file>
@@ -278,7 +275,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -301,50 +298,59 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -640,10 +646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -666,102 +672,98 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="24.75" customHeight="1">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>12</v>
+      <c r="B2" s="24" t="s">
+        <v>11</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="25.5" customHeight="1">
-      <c r="A3" s="11"/>
-      <c r="B3" s="9"/>
+      <c r="A3" s="23"/>
+      <c r="B3" s="25"/>
       <c r="C3" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="23.25" customHeight="1">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="17"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="16"/>
     </row>
     <row r="5" spans="1:3" ht="36.75" customHeight="1">
-      <c r="A5" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="20"/>
+      <c r="A5" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="13"/>
     </row>
     <row r="6" spans="1:3" ht="23.25" customHeight="1">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="17"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="16"/>
     </row>
     <row r="7" spans="1:3" ht="23.25" customHeight="1">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="22"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="19"/>
     </row>
     <row r="8" spans="1:3" ht="21" customHeight="1">
-      <c r="A8" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="14"/>
-    </row>
-    <row r="9" spans="1:3" ht="24.75" customHeight="1">
-      <c r="A9" s="1" t="s">
+      <c r="A8" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="20"/>
+      <c r="C8" s="21"/>
+    </row>
+    <row r="9" spans="1:3" ht="21" customHeight="1">
+      <c r="A9" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="20"/>
+      <c r="C9" s="21"/>
+    </row>
+    <row r="10" spans="1:3" ht="24.75" customHeight="1">
+      <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="39.75" customHeight="1">
-      <c r="A10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="2" t="s">
+    <row r="11" spans="1:3" ht="61.5" customHeight="1">
+      <c r="A11" s="3" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="64.5" customHeight="1">
-      <c r="A11" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="50.25" customHeight="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="64.5" customHeight="1">
       <c r="A12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="22.5" customHeight="1"/>
-    <row r="15" spans="1:3" ht="21.75" customHeight="1">
+    </row>
+    <row r="13" spans="1:3" ht="50.25" customHeight="1"/>
+    <row r="15" spans="1:3" ht="22.5" customHeight="1">
       <c r="A15" s="6" t="s">
         <v>0</v>
       </c>
@@ -772,119 +774,116 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="20.25" customHeight="1">
-      <c r="A16" s="10" t="s">
+    <row r="16" spans="1:3" ht="21.75" customHeight="1">
+      <c r="A16" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>29</v>
+      <c r="B16" s="24" t="s">
+        <v>26</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="19.5" customHeight="1">
-      <c r="A17" s="11"/>
-      <c r="B17" s="9"/>
+    <row r="17" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A17" s="23"/>
+      <c r="B17" s="25"/>
       <c r="C17" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="21">
-      <c r="A18" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="19.5" customHeight="1">
+      <c r="A18" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="16"/>
-      <c r="C18" s="17"/>
-    </row>
-    <row r="19" spans="1:3" ht="21" customHeight="1">
-      <c r="A19" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="19"/>
-      <c r="C19" s="20"/>
-    </row>
-    <row r="20" spans="1:3" ht="21">
-      <c r="A20" s="15" t="s">
+      <c r="B18" s="15"/>
+      <c r="C18" s="16"/>
+    </row>
+    <row r="19" spans="1:3" ht="34.5" customHeight="1">
+      <c r="A19" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="12"/>
+      <c r="C19" s="13"/>
+    </row>
+    <row r="20" spans="1:3" ht="21" customHeight="1">
+      <c r="A20" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="16"/>
-      <c r="C20" s="17"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="16"/>
     </row>
     <row r="21" spans="1:3" ht="21">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="22"/>
-    </row>
-    <row r="22" spans="1:3" ht="24" customHeight="1">
-      <c r="A22" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="14"/>
-    </row>
-    <row r="23" spans="1:3" ht="21">
-      <c r="A23" s="6" t="s">
+      <c r="B21" s="18"/>
+      <c r="C21" s="19"/>
+    </row>
+    <row r="22" spans="1:3" ht="21.75" customHeight="1">
+      <c r="A22" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="20"/>
+      <c r="C22" s="21"/>
+    </row>
+    <row r="23" spans="1:3" ht="24" customHeight="1">
+      <c r="A23" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="20"/>
+      <c r="C23" s="21"/>
+    </row>
+    <row r="24" spans="1:3" ht="21">
+      <c r="A24" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B24" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C24" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="30" customHeight="1">
-      <c r="A24" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="30">
+    <row r="25" spans="1:3" ht="34.5" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="30">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="39.75" customHeight="1">
       <c r="A26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="45">
+      <c r="A27" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="31.5" customHeight="1">
-      <c r="A27" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="32.25" customHeight="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="31.5" customHeight="1">
       <c r="A28" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="32.25" customHeight="1"/>
     <row r="31" spans="1:3" ht="21">
       <c r="A31" s="6" t="s">
         <v>0</v>
@@ -896,131 +895,130 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="20.25" customHeight="1">
-      <c r="A32" s="10" t="s">
+    <row r="32" spans="1:3">
+      <c r="A32" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B32" s="8" t="s">
-        <v>31</v>
+      <c r="B32" s="24" t="s">
+        <v>28</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="20.25" customHeight="1">
-      <c r="A33" s="11"/>
-      <c r="B33" s="9"/>
+      <c r="A33" s="23"/>
+      <c r="B33" s="25"/>
       <c r="C33" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A34" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" s="15"/>
+      <c r="C34" s="16"/>
+    </row>
+    <row r="35" spans="1:3" ht="23.25" customHeight="1">
+      <c r="A35" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35" s="12"/>
+      <c r="C35" s="13"/>
+    </row>
+    <row r="36" spans="1:3" ht="21.75" customHeight="1">
+      <c r="A36" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" s="15"/>
+      <c r="C36" s="16"/>
+    </row>
+    <row r="37" spans="1:3" ht="21">
+      <c r="A37" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="18"/>
+      <c r="C37" s="19"/>
+    </row>
+    <row r="38" spans="1:3" ht="23.25" customHeight="1">
+      <c r="A38" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" s="20"/>
+      <c r="C38" s="21"/>
+    </row>
+    <row r="39" spans="1:3" ht="23.25" customHeight="1">
+      <c r="A39" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="9"/>
+      <c r="C39" s="10"/>
+    </row>
+    <row r="40" spans="1:3" ht="22.5" customHeight="1">
+      <c r="A40" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="33" customHeight="1">
+      <c r="A41" s="3" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="21">
-      <c r="A34" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B34" s="16"/>
-      <c r="C34" s="17"/>
-    </row>
-    <row r="35" spans="1:3" ht="21.75" customHeight="1">
-      <c r="A35" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B35" s="19"/>
-      <c r="C35" s="20"/>
-    </row>
-    <row r="36" spans="1:3" ht="21">
-      <c r="A36" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B36" s="16"/>
-      <c r="C36" s="17"/>
-    </row>
-    <row r="37" spans="1:3" ht="21">
-      <c r="A37" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B37" s="21"/>
-      <c r="C37" s="22"/>
-    </row>
-    <row r="38" spans="1:3" ht="20.25" customHeight="1">
-      <c r="A38" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B38" s="13"/>
-      <c r="C38" s="14"/>
-    </row>
-    <row r="39" spans="1:3" ht="21">
-      <c r="A39" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="33" customHeight="1">
-      <c r="A40" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="30">
-      <c r="A41" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="33" customHeight="1">
+      <c r="A42" s="3" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="38.25" customHeight="1">
-      <c r="A42" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="45">
       <c r="A43" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="38.25" customHeight="1"/>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="23">
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
     <mergeCell ref="A35:C35"/>
     <mergeCell ref="A36:C36"/>
     <mergeCell ref="A37:C37"/>
     <mergeCell ref="A38:C38"/>
     <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
     <mergeCell ref="A32:A33"/>
     <mergeCell ref="B32:B33"/>
     <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A7:C7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
